--- a/doc/_modelos/modelo-fluxo-de-caixa-mensal-contaazul-r.xlsx
+++ b/doc/_modelos/modelo-fluxo-de-caixa-mensal-contaazul-r.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaque\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\ASS\SGE\trunk\doc\_modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E0D94-2178-44D8-9042-C1265AC6FD87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D947680E-E22E-4554-A834-E0209622F90A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,6 +471,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,18 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2541,7 +2541,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:I7"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2552,17 +2552,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -2577,22 +2577,22 @@
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="43"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
@@ -2622,82 +2622,86 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" s="19">
         <f>B6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="18">
-        <f t="shared" ref="D6:I6" si="0">B20</f>
-        <v>0</v>
+        <f>B20</f>
+        <v>107</v>
       </c>
       <c r="E6" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="D6:I6" si="0">C20</f>
+        <v>98</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="G6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="20">
+        <v>10</v>
+      </c>
+      <c r="C9" s="21">
+        <v>10</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
       <c r="F9" s="22"/>
@@ -2709,7 +2713,9 @@
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="20">
+        <v>25</v>
+      </c>
       <c r="C10" s="21"/>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
@@ -2724,11 +2730,11 @@
       </c>
       <c r="B11" s="20">
         <f>SUBTOTAL(109,B9:B10)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" ref="C11:I11" si="1">SUBTOTAL(109,C9:C10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="20">
         <f t="shared" si="1"/>
@@ -2756,34 +2762,36 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="24">
+        <v>10</v>
+      </c>
       <c r="C14" s="25"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
@@ -2796,8 +2804,12 @@
       <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="24">
+        <v>12</v>
+      </c>
+      <c r="C15" s="25">
+        <v>12</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
@@ -2809,7 +2821,9 @@
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="24">
+        <v>1</v>
+      </c>
       <c r="C16" s="25"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
@@ -2822,7 +2836,9 @@
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="24">
+        <v>5</v>
+      </c>
       <c r="C17" s="25"/>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
@@ -2837,11 +2853,11 @@
       </c>
       <c r="B18" s="24">
         <f>SUBTOTAL(109,B14:B17)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C18" s="24">
         <f t="shared" ref="C18:I18" si="2">SUBTOTAL(109,C14:C17)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D18" s="24">
         <f t="shared" si="2"/>
@@ -2869,51 +2885,51 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="28">
-        <f t="shared" ref="B20:I20" si="3">B6+B11-B18</f>
-        <v>0</v>
+        <f>B6+B11-B18</f>
+        <v>107</v>
       </c>
       <c r="C20" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>C6+C11-C18</f>
+        <v>98</v>
       </c>
       <c r="D20" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D6+D11-D18</f>
+        <v>107</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="B20:I20" si="3">E6+E11-E18</f>
+        <v>98</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H20" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I20" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2924,27 +2940,27 @@
       <c r="C21" s="30"/>
       <c r="D21" s="29">
         <f>B6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="29">
         <f t="shared" ref="E21:I21" si="4">C6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H21" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I21" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2953,11 +2969,11 @@
       </c>
       <c r="B22" s="29">
         <f>B11-B18</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C22" s="29">
         <f>C11-C18</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D22" s="29">
         <f t="shared" ref="D22:I22" si="5">D11-D18</f>
@@ -2987,17 +3003,17 @@
     <row r="31" spans="1:9" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -3021,17 +3037,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="62" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
